--- a/BoM/citizen_science_flora_top_bom.xlsx
+++ b/BoM/citizen_science_flora_top_bom.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/51c118854276e9fd/Documents/GitHub/citizen_science_paper/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/51c118854276e9fd/Documents/GitHub/citizen_science_paper/BoM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:9_{29A30D16-008F-4B68-940E-2DD126E9F68C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8BEC8E9-84BB-4110-8D87-EE60DFDB2D50}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:9_{29A30D16-008F-4B68-940E-2DD126E9F68C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9933D850-E3EE-45AD-BE0F-E98E3E55C7B6}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15720" xr2:uid="{93BA669C-EC05-4E6C-A2ED-53F07742DF3E}"/>
   </bookViews>
@@ -82,9 +82,6 @@
     <t>R12 R21 R22</t>
   </si>
   <si>
-    <t>L1</t>
-  </si>
-  <si>
     <t>0805</t>
   </si>
   <si>
@@ -424,9 +421,6 @@
     <t>C25879</t>
   </si>
   <si>
-    <t>C51725</t>
-  </si>
-  <si>
     <t>3.3µH</t>
   </si>
   <si>
@@ -445,9 +439,6 @@
     <t>C15525</t>
   </si>
   <si>
-    <t>C654952</t>
-  </si>
-  <si>
     <t>C1547</t>
   </si>
   <si>
@@ -530,6 +521,15 @@
   </si>
   <si>
     <t>60312202114511</t>
+  </si>
+  <si>
+    <t>L4</t>
+  </si>
+  <si>
+    <t>C42411119</t>
+  </si>
+  <si>
+    <t>C20625731</t>
   </si>
 </sst>
 </file>
@@ -1408,8 +1408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A47E7284-6A56-42D8-8DDE-65F0BD1A0F53}">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1439,13 +1439,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" t="s">
         <v>125</v>
-      </c>
-      <c r="D2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -1453,13 +1453,13 @@
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1473,7 +1473,7 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1487,7 +1487,7 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1501,7 +1501,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1509,13 +1509,13 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1529,7 +1529,7 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1543,147 +1543,147 @@
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="D10" t="s">
-        <v>134</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
         <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
         <v>24</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
         <v>27</v>
-      </c>
-      <c r="B14" t="s">
-        <v>28</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
         <v>29</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>30</v>
       </c>
-      <c r="C15" t="s">
-        <v>31</v>
-      </c>
       <c r="D15" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
         <v>32</v>
-      </c>
-      <c r="B16" t="s">
-        <v>33</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
         <v>34</v>
-      </c>
-      <c r="B17" t="s">
-        <v>35</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
         <v>36</v>
-      </c>
-      <c r="B18" t="s">
-        <v>37</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B19" t="s">
         <v>122</v>
-      </c>
-      <c r="B19" t="s">
-        <v>123</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1691,13 +1691,13 @@
         <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C20" t="s">
         <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1705,13 +1705,13 @@
         <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1719,27 +1719,27 @@
         <v>100</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
         <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B23" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D23" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1747,420 +1747,420 @@
         <v>470</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C25">
         <v>60312202114511</v>
       </c>
       <c r="D25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" t="s">
         <v>44</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>45</v>
       </c>
-      <c r="C26" t="s">
-        <v>46</v>
-      </c>
       <c r="D26" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" t="s">
         <v>47</v>
       </c>
-      <c r="B27" t="s">
-        <v>48</v>
-      </c>
       <c r="C27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D27" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" t="s">
         <v>49</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>50</v>
       </c>
-      <c r="C28" t="s">
-        <v>51</v>
-      </c>
       <c r="D28" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" t="s">
         <v>52</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>53</v>
       </c>
-      <c r="C29" t="s">
-        <v>54</v>
-      </c>
       <c r="D29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" t="s">
         <v>56</v>
-      </c>
-      <c r="B30" t="s">
-        <v>57</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" t="s">
         <v>58</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>59</v>
       </c>
-      <c r="C31" t="s">
-        <v>60</v>
-      </c>
       <c r="D31" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" t="s">
         <v>61</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>62</v>
       </c>
-      <c r="C32" t="s">
-        <v>63</v>
-      </c>
       <c r="D32" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" t="s">
         <v>64</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>65</v>
       </c>
-      <c r="C33" t="s">
-        <v>66</v>
-      </c>
       <c r="D33" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" t="s">
         <v>67</v>
       </c>
-      <c r="B34" t="s">
-        <v>68</v>
-      </c>
       <c r="C34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" t="s">
         <v>69</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>70</v>
       </c>
-      <c r="C35" t="s">
-        <v>71</v>
-      </c>
       <c r="D35" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" t="s">
         <v>72</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>73</v>
       </c>
-      <c r="C36" t="s">
-        <v>74</v>
-      </c>
       <c r="D36" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" t="s">
         <v>75</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>76</v>
       </c>
-      <c r="C37" t="s">
-        <v>77</v>
-      </c>
       <c r="D37" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" t="s">
         <v>78</v>
       </c>
-      <c r="B38" t="s">
-        <v>79</v>
-      </c>
       <c r="C38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" t="s">
         <v>80</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>81</v>
       </c>
-      <c r="C39" t="s">
-        <v>82</v>
-      </c>
       <c r="D39" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" t="s">
         <v>83</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>84</v>
       </c>
-      <c r="C40" t="s">
-        <v>85</v>
-      </c>
       <c r="D40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B41" t="s">
         <v>86</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>87</v>
       </c>
-      <c r="C41" t="s">
-        <v>88</v>
-      </c>
       <c r="D41" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" t="s">
         <v>89</v>
       </c>
-      <c r="B42" t="s">
-        <v>90</v>
-      </c>
       <c r="C42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D42" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G42" s="4"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B43" t="s">
         <v>91</v>
       </c>
-      <c r="B43" t="s">
-        <v>92</v>
-      </c>
       <c r="C43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B44" t="s">
         <v>93</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>94</v>
       </c>
-      <c r="C44" t="s">
-        <v>95</v>
-      </c>
       <c r="D44" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" t="s">
         <v>96</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>97</v>
       </c>
-      <c r="C45" t="s">
-        <v>98</v>
-      </c>
       <c r="D45" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B46" t="s">
         <v>99</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>100</v>
       </c>
-      <c r="C46" t="s">
-        <v>101</v>
-      </c>
       <c r="D46" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B47" t="s">
         <v>102</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>103</v>
       </c>
-      <c r="C47" t="s">
-        <v>104</v>
-      </c>
       <c r="D47" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B48" t="s">
         <v>105</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>106</v>
       </c>
-      <c r="C48" t="s">
-        <v>107</v>
-      </c>
       <c r="D48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B49" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C49" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D49" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B50" t="s">
         <v>109</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>110</v>
       </c>
-      <c r="C50" t="s">
-        <v>111</v>
-      </c>
       <c r="D50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B51" t="s">
         <v>112</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>113</v>
       </c>
-      <c r="C51" t="s">
-        <v>114</v>
-      </c>
       <c r="D51" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B52" t="s">
         <v>115</v>
       </c>
-      <c r="B52" t="s">
-        <v>116</v>
-      </c>
       <c r="C52" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B53" t="s">
         <v>117</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>118</v>
       </c>
-      <c r="C53" t="s">
-        <v>119</v>
-      </c>
       <c r="D53" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/BoM/citizen_science_flora_top_bom.xlsx
+++ b/BoM/citizen_science_flora_top_bom.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/51c118854276e9fd/Documents/GitHub/citizen_science_paper/BoM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:9_{29A30D16-008F-4B68-940E-2DD126E9F68C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9933D850-E3EE-45AD-BE0F-E98E3E55C7B6}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:9_{29A30D16-008F-4B68-940E-2DD126E9F68C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{166D7B88-9973-42B1-9ABA-B447D892BAC0}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15720" xr2:uid="{93BA669C-EC05-4E6C-A2ED-53F07742DF3E}"/>
+    <workbookView xWindow="1095" yWindow="3465" windowWidth="21600" windowHeight="10920" xr2:uid="{93BA669C-EC05-4E6C-A2ED-53F07742DF3E}"/>
   </bookViews>
   <sheets>
     <sheet name="citizen_science_flora_top_bom" sheetId="1" r:id="rId1"/>
@@ -1408,15 +1408,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A47E7284-6A56-42D8-8DDE-65F0BD1A0F53}">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" style="3" customWidth="1"/>
     <col min="2" max="2" width="30.42578125" customWidth="1"/>
-    <col min="3" max="3" width="32.7109375" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="32.7109375" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
